--- a/results/Auto/genero-m1_es_el_más_adjetivonegativo-m2_que_he_conocido.xlsx
+++ b/results/Auto/genero-m1_es_el_más_adjetivonegativo-m2_que_he_conocido.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002484350930899382</v>
+        <v>1.1549943224054e-07</v>
       </c>
       <c r="E2" t="n">
         <v>0.003076571738347411</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004296300932765007</v>
+        <v>2.003339005796079e-08</v>
       </c>
       <c r="E3" t="n">
         <v>0.002456945367157459</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01833705045282841</v>
+        <v>1.319414089095972e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0.0003997153544332832</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001700734021142125</v>
+        <v>1.75581299499683e-10</v>
       </c>
       <c r="E5" t="n">
         <v>0.0007158282096497715</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001099745859391987</v>
+        <v>1.286379180953645e-08</v>
       </c>
       <c r="E6" t="n">
         <v>0.0002665078500285745</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002050390699878335</v>
+        <v>1.655161163682806e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.002179237548261881</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005513797979801893</v>
+        <v>8.567463538611264e-08</v>
       </c>
       <c r="E8" t="n">
         <v>0.0006203124648891389</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001574075780808926</v>
+        <v>2.341155536100814e-08</v>
       </c>
       <c r="E9" t="n">
         <v>0.0001900304632727057</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002169613260775805</v>
+        <v>5.66607294416599e-09</v>
       </c>
       <c r="E10" t="n">
         <v>6.636381294811144e-05</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003188784932717681</v>
+        <v>3.04028979769555e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.00107101327739656</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002360740909352899</v>
+        <v>1.618947997883424e-08</v>
       </c>
       <c r="E12" t="n">
         <v>0.0004106499836780131</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002874947618693113</v>
+        <v>3.502816525724484e-08</v>
       </c>
       <c r="E13" t="n">
         <v>0.0001126417409977876</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003021835116669536</v>
+        <v>1.206214150784035e-08</v>
       </c>
       <c r="E14" t="n">
         <v>0.002441109623759985</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008734911680221558</v>
+        <v>3.922059832461855e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.0001959696674020961</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0101669579744339</v>
+        <v>6.064343693878982e-08</v>
       </c>
       <c r="E16" t="n">
         <v>0.0001428677642252296</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00273537402972579</v>
+        <v>1.843750041530257e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0008925262955017388</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002827079966664314</v>
+        <v>1.150930994953114e-08</v>
       </c>
       <c r="E18" t="n">
         <v>0.0008127377368509769</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004100549966096878</v>
+        <v>6.621750969770801e-08</v>
       </c>
       <c r="E19" t="n">
         <v>4.723022357211448e-05</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00219575478695333</v>
+        <v>1.006187222429844e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.0006145637016743422</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004781947936862707</v>
+        <v>8.635583803595637e-09</v>
       </c>
       <c r="E21" t="n">
         <v>6.656371260760352e-05</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0007054948946461082</v>
+        <v>4.02394384479976e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.0001374593848595396</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002734879963099957</v>
+        <v>9.86363790644873e-09</v>
       </c>
       <c r="E23" t="n">
         <v>6.213318556547165e-05</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005946605931967497</v>
+        <v>4.890366334109331e-09</v>
       </c>
       <c r="E24" t="n">
         <v>0.00792571809142828</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003603489371016622</v>
+        <v>6.906933247563529e-09</v>
       </c>
       <c r="E25" t="n">
         <v>0.001416156417690217</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005312423687428236</v>
+        <v>6.594407797599899e-10</v>
       </c>
       <c r="E26" t="n">
         <v>5.326178506948054e-05</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002407127292826772</v>
+        <v>9.766028341573474e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0003507354704197496</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002856603125110269</v>
+        <v>6.629542248504094e-09</v>
       </c>
       <c r="E28" t="n">
         <v>0.001193576026707888</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004419378004968166</v>
+        <v>2.381398367390375e-08</v>
       </c>
       <c r="E29" t="n">
         <v>0.000385865627322346</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003274304326623678</v>
+        <v>3.828795414051456e-08</v>
       </c>
       <c r="E30" t="n">
         <v>6.001880319672637e-05</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008139024488627911</v>
+        <v>9.476400109065253e-09</v>
       </c>
       <c r="E31" t="n">
         <v>0.001543039106763899</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004407949279993773</v>
+        <v>9.46085876307734e-09</v>
       </c>
       <c r="E32" t="n">
         <v>0.0001924356474773958</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01053420919924974</v>
+        <v>1.27717314057918e-07</v>
       </c>
       <c r="E33" t="n">
         <v>0.001048703561536968</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003089666133746505</v>
+        <v>3.525227398881725e-08</v>
       </c>
       <c r="E34" t="n">
         <v>0.002363425446674228</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005315654445439577</v>
+        <v>8.362911785297911e-08</v>
       </c>
       <c r="E35" t="n">
         <v>0.001275994232855737</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003898176131770015</v>
+        <v>2.867224324631934e-08</v>
       </c>
       <c r="E36" t="n">
         <v>8.539806003682315e-05</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001750673982314765</v>
+        <v>7.387584766149757e-09</v>
       </c>
       <c r="E37" t="n">
         <v>0.0009566927328705788</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005046392790973186</v>
+        <v>1.634089485946788e-08</v>
       </c>
       <c r="E38" t="n">
         <v>0.001142797060310841</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001671071397140622</v>
+        <v>3.958176364449173e-08</v>
       </c>
       <c r="E39" t="n">
         <v>0.0001997345243580639</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00695256981998682</v>
+        <v>2.551410815954114e-08</v>
       </c>
       <c r="E40" t="n">
         <v>0.00372777390293777</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01121519040316343</v>
+        <v>6.67295836365156e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.001401488087140024</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0004774331755470484</v>
+        <v>3.487845789962307e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.0002898912352975458</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004040163476020098</v>
+        <v>3.647058122169256e-08</v>
       </c>
       <c r="E43" t="n">
         <v>0.0002248894597869366</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002992560155689716</v>
+        <v>3.209524024327948e-08</v>
       </c>
       <c r="E44" t="n">
         <v>7.242814172059298e-05</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003681328380480409</v>
+        <v>4.140344600500612e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0.0001337321155006066</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000737430527806282</v>
+        <v>8.231429760030551e-09</v>
       </c>
       <c r="E46" t="n">
         <v>4.376619108370505e-05</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001636722474358976</v>
+        <v>1.345048872281041e-08</v>
       </c>
       <c r="E47" t="n">
         <v>0.0002482640265952796</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0006922464235685766</v>
+        <v>4.782324758423329e-09</v>
       </c>
       <c r="E48" t="n">
         <v>9.830641647567973e-05</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.003526057582348585</v>
+        <v>6.145252484657249e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.0005885419086553156</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003028064034879208</v>
+        <v>6.500151528143761e-08</v>
       </c>
       <c r="E50" t="n">
         <v>0.000788242497947067</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00051317666657269</v>
+        <v>1.835014451501138e-08</v>
       </c>
       <c r="E51" t="n">
         <v>5.695609434042126e-05</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003285190323367715</v>
+        <v>5.415822812437909e-08</v>
       </c>
       <c r="E52" t="n">
         <v>0.0005711826961487532</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0005143290036357939</v>
+        <v>2.681234567702973e-09</v>
       </c>
       <c r="E53" t="n">
         <v>0.0001421226334059611</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001791279064491391</v>
+        <v>2.222887118819017e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.000979720032773912</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0009742411784827709</v>
+        <v>1.017445017126306e-09</v>
       </c>
       <c r="E55" t="n">
         <v>3.627672776929103e-05</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.008360796608030796</v>
+        <v>1.621131007212284e-09</v>
       </c>
       <c r="E56" t="n">
         <v>6.695159390801564e-05</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01140379160642624</v>
+        <v>7.787685163407332e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.00425685616210103</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.003400229383260012</v>
+        <v>1.761893742013854e-07</v>
       </c>
       <c r="E58" t="n">
         <v>0.0001518856297479942</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003725002752617002</v>
+        <v>1.022320148535982e-07</v>
       </c>
       <c r="E59" t="n">
         <v>0.0005546616157516837</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.003206838853657246</v>
+        <v>1.134531757429613e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.0007241647108457983</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0006631305441260338</v>
+        <v>7.301927062997038e-09</v>
       </c>
       <c r="E61" t="n">
         <v>0.003285788465291262</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001174250151962042</v>
+        <v>1.494049968187028e-07</v>
       </c>
       <c r="E62" t="n">
         <v>0.001251659705303609</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002424158621579409</v>
+        <v>5.956943383012003e-08</v>
       </c>
       <c r="E63" t="n">
         <v>0.001820833771489561</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.005991894286125898</v>
+        <v>3.810936988202229e-08</v>
       </c>
       <c r="E64" t="n">
         <v>0.0004461755743250251</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0006511982064694166</v>
+        <v>6.564501386918664e-09</v>
       </c>
       <c r="E65" t="n">
         <v>3.399693741812371e-05</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003079670714214444</v>
+        <v>1.356263084062448e-07</v>
       </c>
       <c r="E66" t="n">
         <v>0.0008040402317419648</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00270718103274703</v>
+        <v>7.897700271541908e-08</v>
       </c>
       <c r="E67" t="n">
         <v>0.004762101918458939</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005830374546349049</v>
+        <v>2.06588897100346e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.003859385615214705</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.008038629777729511</v>
+        <v>8.429883457949927e-09</v>
       </c>
       <c r="E69" t="n">
         <v>5.174205944058485e-05</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01521474961191416</v>
+        <v>1.631315171835013e-07</v>
       </c>
       <c r="E70" t="n">
         <v>0.001752709620632231</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002592464443296194</v>
+        <v>9.342705276083052e-09</v>
       </c>
       <c r="E71" t="n">
         <v>0.002350834896788001</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001456494675949216</v>
+        <v>1.315206521468326e-08</v>
       </c>
       <c r="E72" t="n">
         <v>3.390849815332331e-05</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006838838569819927</v>
+        <v>1.64634457178181e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.001450535608455539</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003232948016375303</v>
+        <v>1.190677494378178e-07</v>
       </c>
       <c r="E74" t="n">
         <v>0.004286536015570164</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00609696377068758</v>
+        <v>9.55807806235498e-08</v>
       </c>
       <c r="E75" t="n">
         <v>0.000794696738012135</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00307321990840137</v>
+        <v>3.5191884961705e-08</v>
       </c>
       <c r="E76" t="n">
         <v>0.004682414699345827</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00134340557269752</v>
+        <v>5.815314452206621e-08</v>
       </c>
       <c r="E77" t="n">
         <v>9.670163126429543e-05</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.005556000862270594</v>
+        <v>4.484550952810196e-09</v>
       </c>
       <c r="E78" t="n">
         <v>0.000537537969648838</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004480479750782251</v>
+        <v>2.129502263414906e-07</v>
       </c>
       <c r="E79" t="n">
         <v>0.0005595957627519965</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001905391574837267</v>
+        <v>1.107063525296326e-07</v>
       </c>
       <c r="E80" t="n">
         <v>0.0003215547767467797</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001395181752741337</v>
+        <v>1.678755978673507e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0002456559450365603</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003951738122850657</v>
+        <v>9.41270670296035e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.004641606472432613</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001122963731177151</v>
+        <v>1.703227958671505e-08</v>
       </c>
       <c r="E83" t="n">
         <v>0.001234774594195187</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.004211172927170992</v>
+        <v>1.12323377265966e-07</v>
       </c>
       <c r="E84" t="n">
         <v>0.001251401146873832</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006137832067906857</v>
+        <v>4.192822089521542e-08</v>
       </c>
       <c r="E85" t="n">
         <v>0.0002190460072597489</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.008382444269955158</v>
+        <v>1.3168136092645e-07</v>
       </c>
       <c r="E86" t="n">
         <v>0.001450464129447937</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.003452860284596682</v>
+        <v>1.754184175695173e-08</v>
       </c>
       <c r="E87" t="n">
         <v>0.001409747521393001</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.005365786608308554</v>
+        <v>5.037380645944722e-08</v>
       </c>
       <c r="E88" t="n">
         <v>0.0006367341266013682</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002727650804445148</v>
+        <v>1.175783381768269e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.001927254605107009</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.003045885125175118</v>
+        <v>1.501713882134936e-07</v>
       </c>
       <c r="E90" t="n">
         <v>0.0001686212199274451</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006215424742549658</v>
+        <v>1.81625878781233e-08</v>
       </c>
       <c r="E91" t="n">
         <v>7.47603116906248e-05</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.004146631341427565</v>
+        <v>3.958911065637949e-08</v>
       </c>
       <c r="E92" t="n">
         <v>0.003373639425262809</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.004101725295186043</v>
+        <v>1.018357451698648e-07</v>
       </c>
       <c r="E93" t="n">
         <v>0.001263361191377044</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002065218053758144</v>
+        <v>3.602705334060374e-08</v>
       </c>
       <c r="E94" t="n">
         <v>0.001284511992707849</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.003236046759411693</v>
+        <v>5.943103786876236e-08</v>
       </c>
       <c r="E95" t="n">
         <v>0.001483706291764975</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.003279537428170443</v>
+        <v>2.346216732007633e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.00126476667355746</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002775189932435751</v>
+        <v>6.818208220238375e-08</v>
       </c>
       <c r="E97" t="n">
         <v>0.0008776263566687703</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001879134913906455</v>
+        <v>1.126626170133704e-08</v>
       </c>
       <c r="E98" t="n">
         <v>0.002714096568524837</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00320628029294312</v>
+        <v>9.871738093636395e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.001823749975301325</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.007301857229322195</v>
+        <v>2.379122037154957e-07</v>
       </c>
       <c r="E100" t="n">
         <v>0.0003692942846100777</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007444460410624743</v>
+        <v>3.197426678980264e-08</v>
       </c>
       <c r="E101" t="n">
         <v>0.00320997298695147</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
